--- a/FitnessData/dynamic10/pso/analysis_2s.xlsx
+++ b/FitnessData/dynamic10/pso/analysis_2s.xlsx
@@ -552,144 +552,144 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>148.59</v>
+        <v>133.91</v>
       </c>
       <c r="B2" t="n">
-        <v>134.26</v>
+        <v>157.17</v>
       </c>
       <c r="C2" t="n">
-        <v>134.51</v>
+        <v>129.62</v>
       </c>
       <c r="D2" t="n">
-        <v>146.88</v>
+        <v>139.22</v>
       </c>
       <c r="E2" t="n">
-        <v>143.27</v>
+        <v>131.68</v>
       </c>
       <c r="F2" t="n">
-        <v>181.34</v>
+        <v>149.79</v>
       </c>
       <c r="G2" t="n">
-        <v>177.37</v>
+        <v>121.24</v>
       </c>
       <c r="H2" t="n">
-        <v>146.69</v>
+        <v>144.15</v>
       </c>
       <c r="I2" t="n">
-        <v>155.16</v>
+        <v>143.41</v>
       </c>
       <c r="J2" t="n">
-        <v>148.58</v>
+        <v>157.91</v>
       </c>
       <c r="K2" t="n">
-        <v>134.35</v>
+        <v>117.75</v>
       </c>
       <c r="L2" t="n">
-        <v>151.89</v>
+        <v>160.72</v>
       </c>
       <c r="M2" t="n">
-        <v>139.57</v>
+        <v>132.01</v>
       </c>
       <c r="N2" t="n">
-        <v>151.91</v>
+        <v>147.25</v>
       </c>
       <c r="O2" t="n">
-        <v>148.52</v>
+        <v>160.05</v>
       </c>
       <c r="P2" t="n">
-        <v>151.49</v>
+        <v>154.48</v>
       </c>
       <c r="Q2" t="n">
-        <v>143.92</v>
+        <v>152.66</v>
       </c>
       <c r="R2" t="n">
-        <v>128.9</v>
+        <v>160.98</v>
       </c>
       <c r="S2" t="n">
-        <v>140.79</v>
+        <v>137.27</v>
       </c>
       <c r="T2" t="n">
-        <v>147.6</v>
+        <v>145.38</v>
       </c>
       <c r="U2" t="n">
-        <v>128.9</v>
+        <v>117.75</v>
       </c>
       <c r="V2" t="n">
-        <v>147.7795</v>
+        <v>143.8325</v>
       </c>
       <c r="W2" t="n">
-        <v>12.88634506795959</v>
+        <v>13.1837243659709</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>258.84</v>
+        <v>287.33</v>
       </c>
       <c r="B3" t="n">
-        <v>269.28</v>
+        <v>258</v>
       </c>
       <c r="C3" t="n">
-        <v>282.5</v>
+        <v>314.08</v>
       </c>
       <c r="D3" t="n">
-        <v>325.02</v>
+        <v>254.94</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5</v>
+        <v>275.38</v>
       </c>
       <c r="F3" t="n">
-        <v>284.56</v>
+        <v>257.92</v>
       </c>
       <c r="G3" t="n">
-        <v>276.28</v>
+        <v>247.88</v>
       </c>
       <c r="H3" t="n">
-        <v>279.8</v>
+        <v>276.26</v>
       </c>
       <c r="I3" t="n">
-        <v>309.34</v>
+        <v>237.22</v>
       </c>
       <c r="J3" t="n">
-        <v>311.56</v>
+        <v>281.44</v>
       </c>
       <c r="K3" t="n">
-        <v>268.22</v>
+        <v>326.5</v>
       </c>
       <c r="L3" t="n">
-        <v>279.56</v>
+        <v>301.36</v>
       </c>
       <c r="M3" t="n">
-        <v>288.3</v>
+        <v>259.02</v>
       </c>
       <c r="N3" t="n">
-        <v>280.14</v>
+        <v>257.88</v>
       </c>
       <c r="O3" t="n">
-        <v>290.72</v>
+        <v>239.1</v>
       </c>
       <c r="P3" t="n">
-        <v>251.26</v>
+        <v>308.95</v>
       </c>
       <c r="Q3" t="n">
-        <v>291.72</v>
+        <v>229.42</v>
       </c>
       <c r="R3" t="n">
-        <v>293.34</v>
+        <v>265.68</v>
       </c>
       <c r="S3" t="n">
-        <v>345.06</v>
+        <v>256</v>
       </c>
       <c r="T3" t="n">
-        <v>271.64</v>
+        <v>250.7</v>
       </c>
       <c r="U3" t="n">
-        <v>251.26</v>
+        <v>229.42</v>
       </c>
       <c r="V3" t="n">
-        <v>287.1320000000001</v>
+        <v>269.253</v>
       </c>
       <c r="W3" t="n">
-        <v>22.08474338828314</v>
+        <v>26.81390960716196</v>
       </c>
     </row>
   </sheetData>
